--- a/KiCAD_project/CalculationGain.xlsx
+++ b/KiCAD_project/CalculationGain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stefan/work/CUSTOM_ZDC_FIFO/KiCAD_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B6D69E-774E-144A-9F61-24775F892BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BFB04D-61CC-264F-86C4-978D94CE5BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37720" yWindow="560" windowWidth="28040" windowHeight="17120" xr2:uid="{3C194A3F-986B-144B-A3E5-2971A0502443}"/>
+    <workbookView xWindow="71400" yWindow="1200" windowWidth="28040" windowHeight="17120" xr2:uid="{3C194A3F-986B-144B-A3E5-2971A0502443}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>COEF</t>
   </si>
@@ -48,6 +48,21 @@
   </si>
   <si>
     <t>Rvar=</t>
+  </si>
+  <si>
+    <t>Vmax</t>
+  </si>
+  <si>
+    <t>Rfeedback</t>
+  </si>
+  <si>
+    <t>Rtrim</t>
+  </si>
+  <si>
+    <t>offset</t>
+  </si>
+  <si>
+    <t>Trimmer is 1k</t>
   </si>
 </sst>
 </file>
@@ -430,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CEC43A6-3A82-2045-B43B-82C04A8B12BC}">
-  <dimension ref="B1:F205"/>
+  <dimension ref="B1:M205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -441,7 +456,7 @@
     <col min="2" max="2" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -449,7 +464,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>0</v>
       </c>
@@ -458,7 +478,7 @@
         <v>1.2549999999999999</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>1</v>
       </c>
@@ -472,8 +492,14 @@
       <c r="F6" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="L6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>2</v>
       </c>
@@ -487,8 +513,14 @@
       <c r="F7">
         <v>200</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="L7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>3</v>
       </c>
@@ -496,8 +528,14 @@
         <f t="shared" si="0"/>
         <v>1.2257281553398058</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="L8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>4</v>
       </c>
@@ -506,7 +544,7 @@
         <v>1.2163461538461537</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>5</v>
       </c>
@@ -514,8 +552,15 @@
         <f t="shared" si="0"/>
         <v>1.2071428571428573</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="L10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10">
+        <f>M6*M7/M8/2</f>
+        <v>0.61475409836065575</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>6</v>
       </c>
@@ -524,7 +569,7 @@
         <v>1.1981132075471699</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>7</v>
       </c>
@@ -533,7 +578,7 @@
         <v>1.1892523364485981</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>8</v>
       </c>
@@ -542,7 +587,7 @@
         <v>1.1805555555555556</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>9</v>
       </c>
@@ -551,7 +596,7 @@
         <v>1.1720183486238533</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>10</v>
       </c>
@@ -560,7 +605,7 @@
         <v>1.1636363636363636</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>11</v>
       </c>

--- a/KiCAD_project/CalculationGain.xlsx
+++ b/KiCAD_project/CalculationGain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stefan/work/CUSTOM_ZDC_FIFO/KiCAD_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BFB04D-61CC-264F-86C4-978D94CE5BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9A6735-82BF-4247-9724-6D6DE4428917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="71400" yWindow="1200" windowWidth="28040" windowHeight="17120" xr2:uid="{3C194A3F-986B-144B-A3E5-2971A0502443}"/>
+    <workbookView xWindow="1260" yWindow="1560" windowWidth="28040" windowHeight="17120" xr2:uid="{3C194A3F-986B-144B-A3E5-2971A0502443}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
     <t>offset</t>
   </si>
   <si>
-    <t>Trimmer is 1k</t>
+    <t>Trimmer is 500</t>
   </si>
 </sst>
 </file>
@@ -448,7 +448,7 @@
   <dimension ref="B1:M205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -474,8 +474,8 @@
         <v>0</v>
       </c>
       <c r="C5" s="3">
-        <f t="shared" ref="C5:C37" si="0">(1+(402/($F$6+B5)))/4</f>
-        <v>1.2549999999999999</v>
+        <f>(1+(390/($F$6+B5)))/4</f>
+        <v>1.2250000000000001</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
@@ -483,8 +483,8 @@
         <v>1</v>
       </c>
       <c r="C6" s="3">
-        <f t="shared" si="0"/>
-        <v>1.245049504950495</v>
+        <f t="shared" ref="C6:C69" si="0">(1+(390/($F$6+B6)))/4</f>
+        <v>1.2153465346534653</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>2</v>
@@ -505,7 +505,7 @@
       </c>
       <c r="C7" s="3">
         <f t="shared" si="0"/>
-        <v>1.2352941176470589</v>
+        <v>1.2058823529411766</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>3</v>
@@ -517,7 +517,7 @@
         <v>5</v>
       </c>
       <c r="M7">
-        <v>240</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
@@ -526,13 +526,13 @@
       </c>
       <c r="C8" s="3">
         <f t="shared" si="0"/>
-        <v>1.2257281553398058</v>
+        <v>1.1966019417475728</v>
       </c>
       <c r="L8" t="s">
         <v>6</v>
       </c>
       <c r="M8">
-        <v>976</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
@@ -541,7 +541,7 @@
       </c>
       <c r="C9" s="3">
         <f t="shared" si="0"/>
-        <v>1.2163461538461537</v>
+        <v>1.1875</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
@@ -550,14 +550,14 @@
       </c>
       <c r="C10" s="3">
         <f t="shared" si="0"/>
-        <v>1.2071428571428573</v>
+        <v>1.1785714285714286</v>
       </c>
       <c r="L10" t="s">
         <v>7</v>
       </c>
       <c r="M10">
         <f>M6*M7/M8/2</f>
-        <v>0.61475409836065575</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
@@ -566,7 +566,7 @@
       </c>
       <c r="C11" s="3">
         <f t="shared" si="0"/>
-        <v>1.1981132075471699</v>
+        <v>1.1698113207547169</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
@@ -575,7 +575,7 @@
       </c>
       <c r="C12" s="3">
         <f t="shared" si="0"/>
-        <v>1.1892523364485981</v>
+        <v>1.1612149532710281</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
@@ -584,7 +584,7 @@
       </c>
       <c r="C13" s="3">
         <f t="shared" si="0"/>
-        <v>1.1805555555555556</v>
+        <v>1.1527777777777777</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
@@ -593,7 +593,7 @@
       </c>
       <c r="C14" s="3">
         <f t="shared" si="0"/>
-        <v>1.1720183486238533</v>
+        <v>1.1444954128440368</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
@@ -602,7 +602,7 @@
       </c>
       <c r="C15" s="3">
         <f t="shared" si="0"/>
-        <v>1.1636363636363636</v>
+        <v>1.1363636363636362</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
@@ -611,7 +611,7 @@
       </c>
       <c r="C16" s="3">
         <f t="shared" si="0"/>
-        <v>1.1554054054054053</v>
+        <v>1.1283783783783785</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
@@ -620,7 +620,7 @@
       </c>
       <c r="C17" s="3">
         <f t="shared" si="0"/>
-        <v>1.1473214285714286</v>
+        <v>1.1205357142857144</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
@@ -629,7 +629,7 @@
       </c>
       <c r="C18" s="3">
         <f t="shared" si="0"/>
-        <v>1.1393805309734515</v>
+        <v>1.1128318584070795</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
@@ -638,7 +638,7 @@
       </c>
       <c r="C19" s="3">
         <f t="shared" si="0"/>
-        <v>1.131578947368421</v>
+        <v>1.1052631578947367</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
@@ -647,7 +647,7 @@
       </c>
       <c r="C20" s="3">
         <f t="shared" si="0"/>
-        <v>1.1239130434782609</v>
+        <v>1.0978260869565217</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
@@ -656,7 +656,7 @@
       </c>
       <c r="C21" s="3">
         <f t="shared" si="0"/>
-        <v>1.1163793103448276</v>
+        <v>1.0905172413793105</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
@@ -665,7 +665,7 @@
       </c>
       <c r="C22" s="3">
         <f t="shared" si="0"/>
-        <v>1.108974358974359</v>
+        <v>1.0833333333333335</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
@@ -674,7 +674,7 @@
       </c>
       <c r="C23" s="3">
         <f t="shared" si="0"/>
-        <v>1.1016949152542372</v>
+        <v>1.076271186440678</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
@@ -683,7 +683,7 @@
       </c>
       <c r="C24" s="3">
         <f t="shared" si="0"/>
-        <v>1.0945378151260505</v>
+        <v>1.069327731092437</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.2">
@@ -692,7 +692,7 @@
       </c>
       <c r="C25" s="3">
         <f t="shared" si="0"/>
-        <v>1.0874999999999999</v>
+        <v>1.0625</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.2">
@@ -701,7 +701,7 @@
       </c>
       <c r="C26" s="3">
         <f t="shared" si="0"/>
-        <v>1.0805785123966942</v>
+        <v>1.0557851239669422</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.2">
@@ -710,7 +710,7 @@
       </c>
       <c r="C27" s="3">
         <f t="shared" si="0"/>
-        <v>1.0737704918032787</v>
+        <v>1.0491803278688525</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.2">
@@ -719,7 +719,7 @@
       </c>
       <c r="C28" s="3">
         <f t="shared" si="0"/>
-        <v>1.0670731707317072</v>
+        <v>1.0426829268292683</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.2">
@@ -728,7 +728,7 @@
       </c>
       <c r="C29" s="3">
         <f t="shared" si="0"/>
-        <v>1.060483870967742</v>
+        <v>1.036290322580645</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.2">
@@ -737,7 +737,7 @@
       </c>
       <c r="C30" s="3">
         <f t="shared" si="0"/>
-        <v>1.054</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.2">
@@ -746,7 +746,7 @@
       </c>
       <c r="C31" s="3">
         <f t="shared" si="0"/>
-        <v>1.0476190476190477</v>
+        <v>1.0238095238095237</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.2">
@@ -755,7 +755,7 @@
       </c>
       <c r="C32" s="3">
         <f t="shared" si="0"/>
-        <v>1.0413385826771653</v>
+        <v>1.0177165354330708</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.2">
@@ -764,7 +764,7 @@
       </c>
       <c r="C33" s="3">
         <f t="shared" si="0"/>
-        <v>1.03515625</v>
+        <v>1.01171875</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.2">
@@ -773,7 +773,7 @@
       </c>
       <c r="C34" s="3">
         <f t="shared" si="0"/>
-        <v>1.0290697674418605</v>
+        <v>1.0058139534883721</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.2">
@@ -782,7 +782,7 @@
       </c>
       <c r="C35" s="3">
         <f t="shared" si="0"/>
-        <v>1.023076923076923</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.2">
@@ -791,7 +791,7 @@
       </c>
       <c r="C36" s="3">
         <f t="shared" si="0"/>
-        <v>1.0171755725190841</v>
+        <v>0.99427480916030531</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.2">
@@ -800,7 +800,7 @@
       </c>
       <c r="C37" s="3">
         <f t="shared" si="0"/>
-        <v>1.0113636363636362</v>
+        <v>0.98863636363636365</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.2">
@@ -808,8 +808,8 @@
         <v>33</v>
       </c>
       <c r="C38" s="3">
-        <f t="shared" ref="C38:C101" si="1">(1+(402/($F$6+B38)))/4</f>
-        <v>1.005639097744361</v>
+        <f t="shared" si="0"/>
+        <v>0.98308270676691734</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.2">
@@ -817,8 +817,8 @@
         <v>34</v>
       </c>
       <c r="C39" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.97761194029850751</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.2">
@@ -826,8 +826,8 @@
         <v>35</v>
       </c>
       <c r="C40" s="3">
-        <f t="shared" si="1"/>
-        <v>0.99444444444444446</v>
+        <f t="shared" si="0"/>
+        <v>0.97222222222222221</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.2">
@@ -835,8 +835,8 @@
         <v>36</v>
       </c>
       <c r="C41" s="3">
-        <f t="shared" si="1"/>
-        <v>0.98897058823529416</v>
+        <f t="shared" si="0"/>
+        <v>0.96691176470588236</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.2">
@@ -844,8 +844,8 @@
         <v>37</v>
       </c>
       <c r="C42" s="3">
-        <f t="shared" si="1"/>
-        <v>0.98357664233576647</v>
+        <f t="shared" si="0"/>
+        <v>0.96167883211678828</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.2">
@@ -853,8 +853,8 @@
         <v>38</v>
       </c>
       <c r="C43" s="3">
-        <f t="shared" si="1"/>
-        <v>0.97826086956521741</v>
+        <f t="shared" si="0"/>
+        <v>0.95652173913043481</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.2">
@@ -862,8 +862,8 @@
         <v>39</v>
       </c>
       <c r="C44" s="3">
-        <f t="shared" si="1"/>
-        <v>0.9730215827338129</v>
+        <f t="shared" si="0"/>
+        <v>0.95143884892086328</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.2">
@@ -871,8 +871,8 @@
         <v>40</v>
       </c>
       <c r="C45" s="3">
-        <f t="shared" si="1"/>
-        <v>0.96785714285714286</v>
+        <f t="shared" si="0"/>
+        <v>0.9464285714285714</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.2">
@@ -880,8 +880,8 @@
         <v>41</v>
       </c>
       <c r="C46" s="3">
-        <f t="shared" si="1"/>
-        <v>0.96276595744680848</v>
+        <f t="shared" si="0"/>
+        <v>0.94148936170212771</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.2">
@@ -889,8 +889,8 @@
         <v>42</v>
       </c>
       <c r="C47" s="3">
-        <f t="shared" si="1"/>
-        <v>0.95774647887323938</v>
+        <f t="shared" si="0"/>
+        <v>0.93661971830985913</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.2">
@@ -898,8 +898,8 @@
         <v>43</v>
       </c>
       <c r="C48" s="3">
-        <f t="shared" si="1"/>
-        <v>0.95279720279720281</v>
+        <f t="shared" si="0"/>
+        <v>0.93181818181818177</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.2">
@@ -907,8 +907,8 @@
         <v>44</v>
       </c>
       <c r="C49" s="3">
-        <f t="shared" si="1"/>
-        <v>0.94791666666666663</v>
+        <f t="shared" si="0"/>
+        <v>0.92708333333333337</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.2">
@@ -916,8 +916,8 @@
         <v>45</v>
       </c>
       <c r="C50" s="3">
-        <f t="shared" si="1"/>
-        <v>0.94310344827586212</v>
+        <f t="shared" si="0"/>
+        <v>0.92241379310344829</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.2">
@@ -925,8 +925,8 @@
         <v>46</v>
       </c>
       <c r="C51" s="3">
-        <f t="shared" si="1"/>
-        <v>0.93835616438356162</v>
+        <f t="shared" si="0"/>
+        <v>0.9178082191780822</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.2">
@@ -934,8 +934,8 @@
         <v>47</v>
       </c>
       <c r="C52" s="3">
-        <f t="shared" si="1"/>
-        <v>0.93367346938775508</v>
+        <f t="shared" si="0"/>
+        <v>0.91326530612244894</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.2">
@@ -943,8 +943,8 @@
         <v>48</v>
       </c>
       <c r="C53" s="3">
-        <f t="shared" si="1"/>
-        <v>0.92905405405405406</v>
+        <f t="shared" si="0"/>
+        <v>0.90878378378378377</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.2">
@@ -952,8 +952,8 @@
         <v>49</v>
       </c>
       <c r="C54" s="3">
-        <f t="shared" si="1"/>
-        <v>0.92449664429530198</v>
+        <f t="shared" si="0"/>
+        <v>0.90436241610738255</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.2">
@@ -961,8 +961,8 @@
         <v>50</v>
       </c>
       <c r="C55" s="3">
-        <f t="shared" si="1"/>
-        <v>0.92</v>
+        <f t="shared" si="0"/>
+        <v>0.9</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.2">
@@ -970,8 +970,8 @@
         <v>51</v>
       </c>
       <c r="C56" s="3">
-        <f t="shared" si="1"/>
-        <v>0.91556291390728473</v>
+        <f t="shared" si="0"/>
+        <v>0.89569536423841056</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.2">
@@ -979,8 +979,8 @@
         <v>52</v>
       </c>
       <c r="C57" s="3">
-        <f t="shared" si="1"/>
-        <v>0.91118421052631582</v>
+        <f t="shared" si="0"/>
+        <v>0.89144736842105265</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.2">
@@ -988,8 +988,8 @@
         <v>53</v>
       </c>
       <c r="C58" s="3">
-        <f t="shared" si="1"/>
-        <v>0.90686274509803921</v>
+        <f t="shared" si="0"/>
+        <v>0.88725490196078427</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.2">
@@ -997,8 +997,8 @@
         <v>54</v>
       </c>
       <c r="C59" s="3">
-        <f t="shared" si="1"/>
-        <v>0.90259740259740262</v>
+        <f t="shared" si="0"/>
+        <v>0.88311688311688308</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.2">
@@ -1006,8 +1006,8 @@
         <v>55</v>
       </c>
       <c r="C60" s="3">
-        <f t="shared" si="1"/>
-        <v>0.89838709677419359</v>
+        <f t="shared" si="0"/>
+        <v>0.87903225806451613</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.2">
@@ -1015,8 +1015,8 @@
         <v>56</v>
       </c>
       <c r="C61" s="3">
-        <f t="shared" si="1"/>
-        <v>0.89423076923076927</v>
+        <f t="shared" si="0"/>
+        <v>0.875</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.2">
@@ -1024,8 +1024,8 @@
         <v>57</v>
       </c>
       <c r="C62" s="3">
-        <f t="shared" si="1"/>
-        <v>0.89012738853503182</v>
+        <f t="shared" si="0"/>
+        <v>0.87101910828025475</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.2">
@@ -1033,8 +1033,8 @@
         <v>58</v>
       </c>
       <c r="C63" s="3">
-        <f t="shared" si="1"/>
-        <v>0.88607594936708856</v>
+        <f t="shared" si="0"/>
+        <v>0.86708860759493667</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.2">
@@ -1042,8 +1042,8 @@
         <v>59</v>
       </c>
       <c r="C64" s="3">
-        <f t="shared" si="1"/>
-        <v>0.88207547169811318</v>
+        <f t="shared" si="0"/>
+        <v>0.8632075471698113</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.2">
@@ -1051,8 +1051,8 @@
         <v>60</v>
       </c>
       <c r="C65" s="3">
-        <f t="shared" si="1"/>
-        <v>0.87812500000000004</v>
+        <f t="shared" si="0"/>
+        <v>0.859375</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.2">
@@ -1060,8 +1060,8 @@
         <v>61</v>
       </c>
       <c r="C66" s="3">
-        <f t="shared" si="1"/>
-        <v>0.87422360248447206</v>
+        <f t="shared" si="0"/>
+        <v>0.85559006211180122</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.2">
@@ -1069,8 +1069,8 @@
         <v>62</v>
       </c>
       <c r="C67" s="3">
-        <f t="shared" si="1"/>
-        <v>0.87037037037037035</v>
+        <f t="shared" si="0"/>
+        <v>0.85185185185185186</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.2">
@@ -1078,8 +1078,8 @@
         <v>63</v>
       </c>
       <c r="C68" s="3">
-        <f t="shared" si="1"/>
-        <v>0.8665644171779141</v>
+        <f t="shared" si="0"/>
+        <v>0.84815950920245398</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.2">
@@ -1087,8 +1087,8 @@
         <v>64</v>
       </c>
       <c r="C69" s="3">
-        <f t="shared" si="1"/>
-        <v>0.86280487804878048</v>
+        <f t="shared" si="0"/>
+        <v>0.84451219512195119</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.2">
@@ -1096,8 +1096,8 @@
         <v>65</v>
       </c>
       <c r="C70" s="3">
-        <f t="shared" si="1"/>
-        <v>0.85909090909090913</v>
+        <f t="shared" ref="C70:C133" si="1">(1+(390/($F$6+B70)))/4</f>
+        <v>0.84090909090909094</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.2">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="C71" s="3">
         <f t="shared" si="1"/>
-        <v>0.85542168674698793</v>
+        <v>0.83734939759036142</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.2">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="C72" s="3">
         <f t="shared" si="1"/>
-        <v>0.85179640718562877</v>
+        <v>0.83383233532934131</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.2">
@@ -1124,7 +1124,7 @@
       </c>
       <c r="C73" s="3">
         <f t="shared" si="1"/>
-        <v>0.8482142857142857</v>
+        <v>0.8303571428571429</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.2">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="C74" s="3">
         <f t="shared" si="1"/>
-        <v>0.84467455621301779</v>
+        <v>0.82692307692307687</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.2">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="C75" s="3">
         <f t="shared" si="1"/>
-        <v>0.8411764705882353</v>
+        <v>0.82352941176470584</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.2">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="C76" s="3">
         <f t="shared" si="1"/>
-        <v>0.83771929824561409</v>
+        <v>0.82017543859649122</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.2">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C77" s="3">
         <f t="shared" si="1"/>
-        <v>0.83430232558139539</v>
+        <v>0.81686046511627908</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.2">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="C78" s="3">
         <f t="shared" si="1"/>
-        <v>0.83092485549132944</v>
+        <v>0.81358381502890176</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.2">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="C79" s="3">
         <f t="shared" si="1"/>
-        <v>0.82758620689655171</v>
+        <v>0.81034482758620685</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.2">
@@ -1187,7 +1187,7 @@
       </c>
       <c r="C80" s="3">
         <f t="shared" si="1"/>
-        <v>0.82428571428571429</v>
+        <v>0.80714285714285716</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.2">
@@ -1196,7 +1196,7 @@
       </c>
       <c r="C81" s="3">
         <f t="shared" si="1"/>
-        <v>0.82102272727272729</v>
+        <v>0.80397727272727271</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.2">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="C82" s="3">
         <f t="shared" si="1"/>
-        <v>0.81779661016949157</v>
+        <v>0.80084745762711862</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.2">
@@ -1214,7 +1214,7 @@
       </c>
       <c r="C83" s="3">
         <f t="shared" si="1"/>
-        <v>0.8146067415730337</v>
+        <v>0.797752808988764</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.2">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="C84" s="3">
         <f t="shared" si="1"/>
-        <v>0.81145251396648044</v>
+        <v>0.79469273743016755</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.2">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="C85" s="3">
         <f t="shared" si="1"/>
-        <v>0.80833333333333335</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.2">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="C86" s="3">
         <f t="shared" si="1"/>
-        <v>0.80524861878453036</v>
+        <v>0.78867403314917128</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.2">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="C87" s="3">
         <f t="shared" si="1"/>
-        <v>0.80219780219780223</v>
+        <v>0.7857142857142857</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.2">
@@ -1259,7 +1259,7 @@
       </c>
       <c r="C88" s="3">
         <f t="shared" si="1"/>
-        <v>0.79918032786885251</v>
+        <v>0.78278688524590168</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.2">
@@ -1268,7 +1268,7 @@
       </c>
       <c r="C89" s="3">
         <f t="shared" si="1"/>
-        <v>0.79619565217391308</v>
+        <v>0.77989130434782605</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.2">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="C90" s="3">
         <f t="shared" si="1"/>
-        <v>0.79324324324324325</v>
+        <v>0.77702702702702697</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.2">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="C91" s="3">
         <f t="shared" si="1"/>
-        <v>0.79032258064516125</v>
+        <v>0.77419354838709675</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.2">
@@ -1295,7 +1295,7 @@
       </c>
       <c r="C92" s="3">
         <f t="shared" si="1"/>
-        <v>0.78743315508021394</v>
+        <v>0.77139037433155078</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.2">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="C93" s="3">
         <f t="shared" si="1"/>
-        <v>0.78457446808510634</v>
+        <v>0.7686170212765957</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.2">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C94" s="3">
         <f t="shared" si="1"/>
-        <v>0.78174603174603174</v>
+        <v>0.76587301587301593</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.2">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="C95" s="3">
         <f t="shared" si="1"/>
-        <v>0.77894736842105261</v>
+        <v>0.76315789473684215</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.2">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C96" s="3">
         <f t="shared" si="1"/>
-        <v>0.77617801047120416</v>
+        <v>0.76047120418848169</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.2">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="C97" s="3">
         <f t="shared" si="1"/>
-        <v>0.7734375</v>
+        <v>0.7578125</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.2">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="C98" s="3">
         <f t="shared" si="1"/>
-        <v>0.77072538860103623</v>
+        <v>0.75518134715025909</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.2">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="C99" s="3">
         <f t="shared" si="1"/>
-        <v>0.76804123711340211</v>
+        <v>0.75257731958762886</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.2">
@@ -1367,7 +1367,7 @@
       </c>
       <c r="C100" s="3">
         <f t="shared" si="1"/>
-        <v>0.76538461538461533</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.2">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="C101" s="3">
         <f t="shared" si="1"/>
-        <v>0.76275510204081631</v>
+        <v>0.74744897959183676</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.2">
@@ -1384,8 +1384,8 @@
         <v>97</v>
       </c>
       <c r="C102" s="3">
-        <f t="shared" ref="C102:C165" si="2">(1+(402/($F$6+B102)))/4</f>
-        <v>0.76015228426395942</v>
+        <f t="shared" si="1"/>
+        <v>0.74492385786802029</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.2">
@@ -1393,8 +1393,8 @@
         <v>98</v>
       </c>
       <c r="C103" s="3">
-        <f t="shared" si="2"/>
-        <v>0.75757575757575757</v>
+        <f t="shared" si="1"/>
+        <v>0.74242424242424243</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.2">
@@ -1402,8 +1402,8 @@
         <v>99</v>
       </c>
       <c r="C104" s="3">
-        <f t="shared" si="2"/>
-        <v>0.75502512562814073</v>
+        <f t="shared" si="1"/>
+        <v>0.73994974874371855</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.2">
@@ -1411,8 +1411,8 @@
         <v>100</v>
       </c>
       <c r="C105" s="3">
-        <f t="shared" si="2"/>
-        <v>0.75249999999999995</v>
+        <f t="shared" si="1"/>
+        <v>0.73750000000000004</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.2">
@@ -1420,8 +1420,8 @@
         <v>101</v>
       </c>
       <c r="C106" s="3">
-        <f t="shared" si="2"/>
-        <v>0.75</v>
+        <f t="shared" si="1"/>
+        <v>0.7350746268656716</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.2">
@@ -1429,8 +1429,8 @@
         <v>102</v>
       </c>
       <c r="C107" s="3">
-        <f t="shared" si="2"/>
-        <v>0.74752475247524752</v>
+        <f t="shared" si="1"/>
+        <v>0.73267326732673266</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.2">
@@ -1438,8 +1438,8 @@
         <v>103</v>
       </c>
       <c r="C108" s="3">
-        <f t="shared" si="2"/>
-        <v>0.74507389162561577</v>
+        <f t="shared" si="1"/>
+        <v>0.73029556650246308</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.2">
@@ -1447,8 +1447,8 @@
         <v>104</v>
       </c>
       <c r="C109" s="3">
-        <f t="shared" si="2"/>
-        <v>0.74264705882352944</v>
+        <f t="shared" si="1"/>
+        <v>0.72794117647058831</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.2">
@@ -1456,8 +1456,8 @@
         <v>105</v>
       </c>
       <c r="C110" s="3">
-        <f t="shared" si="2"/>
-        <v>0.74024390243902438</v>
+        <f t="shared" si="1"/>
+        <v>0.72560975609756095</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.2">
@@ -1465,8 +1465,8 @@
         <v>106</v>
       </c>
       <c r="C111" s="3">
-        <f t="shared" si="2"/>
-        <v>0.73786407766990292</v>
+        <f t="shared" si="1"/>
+        <v>0.72330097087378642</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.2">
@@ -1474,8 +1474,8 @@
         <v>107</v>
       </c>
       <c r="C112" s="3">
-        <f t="shared" si="2"/>
-        <v>0.73550724637681153</v>
+        <f t="shared" si="1"/>
+        <v>0.72101449275362317</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.2">
@@ -1483,8 +1483,8 @@
         <v>108</v>
       </c>
       <c r="C113" s="3">
-        <f t="shared" si="2"/>
-        <v>0.73317307692307687</v>
+        <f t="shared" si="1"/>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.2">
@@ -1492,8 +1492,8 @@
         <v>109</v>
       </c>
       <c r="C114" s="3">
-        <f t="shared" si="2"/>
-        <v>0.73086124401913877</v>
+        <f t="shared" si="1"/>
+        <v>0.71650717703349276</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.2">
@@ -1501,8 +1501,8 @@
         <v>110</v>
       </c>
       <c r="C115" s="3">
-        <f t="shared" si="2"/>
-        <v>0.72857142857142865</v>
+        <f t="shared" si="1"/>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.2">
@@ -1510,8 +1510,8 @@
         <v>111</v>
       </c>
       <c r="C116" s="3">
-        <f t="shared" si="2"/>
-        <v>0.726303317535545</v>
+        <f t="shared" si="1"/>
+        <v>0.71208530805687209</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.2">
@@ -1519,8 +1519,8 @@
         <v>112</v>
       </c>
       <c r="C117" s="3">
-        <f t="shared" si="2"/>
-        <v>0.72405660377358494</v>
+        <f t="shared" si="1"/>
+        <v>0.70990566037735847</v>
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.2">
@@ -1528,8 +1528,8 @@
         <v>113</v>
       </c>
       <c r="C118" s="3">
-        <f t="shared" si="2"/>
-        <v>0.721830985915493</v>
+        <f t="shared" si="1"/>
+        <v>0.70774647887323949</v>
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.2">
@@ -1537,8 +1537,8 @@
         <v>114</v>
       </c>
       <c r="C119" s="3">
-        <f t="shared" si="2"/>
-        <v>0.71962616822429903</v>
+        <f t="shared" si="1"/>
+        <v>0.70560747663551404</v>
       </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.2">
@@ -1546,8 +1546,8 @@
         <v>115</v>
       </c>
       <c r="C120" s="3">
-        <f t="shared" si="2"/>
-        <v>0.71744186046511627</v>
+        <f t="shared" si="1"/>
+        <v>0.70348837209302317</v>
       </c>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.2">
@@ -1555,8 +1555,8 @@
         <v>116</v>
       </c>
       <c r="C121" s="3">
-        <f t="shared" si="2"/>
-        <v>0.71527777777777779</v>
+        <f t="shared" si="1"/>
+        <v>0.70138888888888884</v>
       </c>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.2">
@@ -1564,8 +1564,8 @@
         <v>117</v>
       </c>
       <c r="C122" s="3">
-        <f t="shared" si="2"/>
-        <v>0.71313364055299533</v>
+        <f t="shared" si="1"/>
+        <v>0.69930875576036866</v>
       </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.2">
@@ -1573,8 +1573,8 @@
         <v>118</v>
       </c>
       <c r="C123" s="3">
-        <f t="shared" si="2"/>
-        <v>0.71100917431192667</v>
+        <f t="shared" si="1"/>
+        <v>0.69724770642201839</v>
       </c>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.2">
@@ -1582,8 +1582,8 @@
         <v>119</v>
       </c>
       <c r="C124" s="3">
-        <f t="shared" si="2"/>
-        <v>0.70890410958904115</v>
+        <f t="shared" si="1"/>
+        <v>0.6952054794520548</v>
       </c>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.2">
@@ -1591,8 +1591,8 @@
         <v>120</v>
       </c>
       <c r="C125" s="3">
-        <f t="shared" si="2"/>
-        <v>0.70681818181818179</v>
+        <f t="shared" si="1"/>
+        <v>0.69318181818181812</v>
       </c>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.2">
@@ -1600,8 +1600,8 @@
         <v>121</v>
       </c>
       <c r="C126" s="3">
-        <f t="shared" si="2"/>
-        <v>0.7047511312217194</v>
+        <f t="shared" si="1"/>
+        <v>0.69117647058823528</v>
       </c>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.2">
@@ -1609,8 +1609,8 @@
         <v>122</v>
       </c>
       <c r="C127" s="3">
-        <f t="shared" si="2"/>
-        <v>0.70270270270270263</v>
+        <f t="shared" si="1"/>
+        <v>0.68918918918918926</v>
       </c>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.2">
@@ -1618,8 +1618,8 @@
         <v>123</v>
       </c>
       <c r="C128" s="3">
-        <f t="shared" si="2"/>
-        <v>0.70067264573991039</v>
+        <f t="shared" si="1"/>
+        <v>0.68721973094170408</v>
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.2">
@@ -1627,8 +1627,8 @@
         <v>124</v>
       </c>
       <c r="C129" s="3">
-        <f t="shared" si="2"/>
-        <v>0.6986607142857143</v>
+        <f t="shared" si="1"/>
+        <v>0.68526785714285721</v>
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.2">
@@ -1636,8 +1636,8 @@
         <v>125</v>
       </c>
       <c r="C130" s="3">
-        <f t="shared" si="2"/>
-        <v>0.69666666666666666</v>
+        <f t="shared" si="1"/>
+        <v>0.68333333333333335</v>
       </c>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.2">
@@ -1645,8 +1645,8 @@
         <v>126</v>
       </c>
       <c r="C131" s="3">
-        <f t="shared" si="2"/>
-        <v>0.69469026548672574</v>
+        <f t="shared" si="1"/>
+        <v>0.68141592920353977</v>
       </c>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.2">
@@ -1654,8 +1654,8 @@
         <v>127</v>
       </c>
       <c r="C132" s="3">
-        <f t="shared" si="2"/>
-        <v>0.69273127753303965</v>
+        <f t="shared" si="1"/>
+        <v>0.67951541850220265</v>
       </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.2">
@@ -1663,8 +1663,8 @@
         <v>128</v>
       </c>
       <c r="C133" s="3">
-        <f t="shared" si="2"/>
-        <v>0.69078947368421051</v>
+        <f t="shared" si="1"/>
+        <v>0.67763157894736836</v>
       </c>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.2">
@@ -1672,8 +1672,8 @@
         <v>129</v>
       </c>
       <c r="C134" s="3">
-        <f t="shared" si="2"/>
-        <v>0.68886462882096078</v>
+        <f t="shared" ref="C134:C197" si="2">(1+(390/($F$6+B134)))/4</f>
+        <v>0.67576419213973793</v>
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.2">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="C135" s="3">
         <f t="shared" si="2"/>
-        <v>0.68695652173913047</v>
+        <v>0.67391304347826086</v>
       </c>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.2">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="C136" s="3">
         <f t="shared" si="2"/>
-        <v>0.68506493506493504</v>
+        <v>0.67207792207792205</v>
       </c>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.2">
@@ -1700,7 +1700,7 @@
       </c>
       <c r="C137" s="3">
         <f t="shared" si="2"/>
-        <v>0.68318965517241381</v>
+        <v>0.67025862068965525</v>
       </c>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.2">
@@ -1709,7 +1709,7 @@
       </c>
       <c r="C138" s="3">
         <f t="shared" si="2"/>
-        <v>0.68133047210300424</v>
+        <v>0.66845493562231761</v>
       </c>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.2">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="C139" s="3">
         <f t="shared" si="2"/>
-        <v>0.67948717948717952</v>
+        <v>0.66666666666666674</v>
       </c>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.2">
@@ -1727,7 +1727,7 @@
       </c>
       <c r="C140" s="3">
         <f t="shared" si="2"/>
-        <v>0.67765957446808511</v>
+        <v>0.66489361702127658</v>
       </c>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.2">
@@ -1736,7 +1736,7 @@
       </c>
       <c r="C141" s="3">
         <f t="shared" si="2"/>
-        <v>0.67584745762711862</v>
+        <v>0.66313559322033899</v>
       </c>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.2">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="C142" s="3">
         <f t="shared" si="2"/>
-        <v>0.67405063291139244</v>
+        <v>0.66139240506329111</v>
       </c>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.2">
@@ -1754,7 +1754,7 @@
       </c>
       <c r="C143" s="3">
         <f t="shared" si="2"/>
-        <v>0.67226890756302526</v>
+        <v>0.65966386554621848</v>
       </c>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.2">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="C144" s="3">
         <f t="shared" si="2"/>
-        <v>0.67050209205020916</v>
+        <v>0.65794979079497906</v>
       </c>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.2">
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C145" s="3">
         <f t="shared" si="2"/>
-        <v>0.66874999999999996</v>
+        <v>0.65625</v>
       </c>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.2">
@@ -1781,7 +1781,7 @@
       </c>
       <c r="C146" s="3">
         <f t="shared" si="2"/>
-        <v>0.66701244813278016</v>
+        <v>0.6545643153526971</v>
       </c>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.2">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="C147" s="3">
         <f t="shared" si="2"/>
-        <v>0.66528925619834711</v>
+        <v>0.65289256198347112</v>
       </c>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.2">
@@ -1799,7 +1799,7 @@
       </c>
       <c r="C148" s="3">
         <f t="shared" si="2"/>
-        <v>0.66358024691358031</v>
+        <v>0.65123456790123457</v>
       </c>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.2">
@@ -1808,7 +1808,7 @@
       </c>
       <c r="C149" s="3">
         <f t="shared" si="2"/>
-        <v>0.66188524590163933</v>
+        <v>0.64959016393442626</v>
       </c>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.2">
@@ -1817,7 +1817,7 @@
       </c>
       <c r="C150" s="3">
         <f t="shared" si="2"/>
-        <v>0.66020408163265309</v>
+        <v>0.64795918367346939</v>
       </c>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.2">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="C151" s="3">
         <f t="shared" si="2"/>
-        <v>0.65853658536585358</v>
+        <v>0.64634146341463417</v>
       </c>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.2">
@@ -1835,7 +1835,7 @@
       </c>
       <c r="C152" s="3">
         <f t="shared" si="2"/>
-        <v>0.65688259109311742</v>
+        <v>0.64473684210526316</v>
       </c>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.2">
@@ -1844,7 +1844,7 @@
       </c>
       <c r="C153" s="3">
         <f t="shared" si="2"/>
-        <v>0.655241935483871</v>
+        <v>0.64314516129032251</v>
       </c>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.2">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="C154" s="3">
         <f t="shared" si="2"/>
-        <v>0.65361445783132532</v>
+        <v>0.64156626506024095</v>
       </c>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.2">
@@ -1862,7 +1862,7 @@
       </c>
       <c r="C155" s="3">
         <f t="shared" si="2"/>
-        <v>0.65200000000000002</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.2">
@@ -1871,7 +1871,7 @@
       </c>
       <c r="C156" s="3">
         <f t="shared" si="2"/>
-        <v>0.65039840637450197</v>
+        <v>0.63844621513944222</v>
       </c>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.2">
@@ -1880,7 +1880,7 @@
       </c>
       <c r="C157" s="3">
         <f t="shared" si="2"/>
-        <v>0.64880952380952384</v>
+        <v>0.63690476190476186</v>
       </c>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.2">
@@ -1889,7 +1889,7 @@
       </c>
       <c r="C158" s="3">
         <f t="shared" si="2"/>
-        <v>0.6472332015810276</v>
+        <v>0.63537549407114624</v>
       </c>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.2">
@@ -1898,7 +1898,7 @@
       </c>
       <c r="C159" s="3">
         <f t="shared" si="2"/>
-        <v>0.64566929133858264</v>
+        <v>0.63385826771653542</v>
       </c>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.2">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C160" s="3">
         <f t="shared" si="2"/>
-        <v>0.64411764705882346</v>
+        <v>0.63235294117647056</v>
       </c>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.2">
@@ -1916,7 +1916,7 @@
       </c>
       <c r="C161" s="3">
         <f t="shared" si="2"/>
-        <v>0.642578125</v>
+        <v>0.630859375</v>
       </c>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.2">
@@ -1925,7 +1925,7 @@
       </c>
       <c r="C162" s="3">
         <f t="shared" si="2"/>
-        <v>0.64105058365758749</v>
+        <v>0.62937743190661477</v>
       </c>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.2">
@@ -1934,7 +1934,7 @@
       </c>
       <c r="C163" s="3">
         <f t="shared" si="2"/>
-        <v>0.63953488372093026</v>
+        <v>0.62790697674418605</v>
       </c>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.2">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="C164" s="3">
         <f t="shared" si="2"/>
-        <v>0.63803088803088803</v>
+        <v>0.62644787644787647</v>
       </c>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.2">
@@ -1952,7 +1952,7 @@
       </c>
       <c r="C165" s="3">
         <f t="shared" si="2"/>
-        <v>0.6365384615384615</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.2">
@@ -1960,8 +1960,8 @@
         <v>161</v>
       </c>
       <c r="C166" s="3">
-        <f t="shared" ref="C166:C205" si="3">(1+(402/($F$6+B166)))/4</f>
-        <v>0.63505747126436773</v>
+        <f t="shared" si="2"/>
+        <v>0.62356321839080464</v>
       </c>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.2">
@@ -1969,8 +1969,8 @@
         <v>162</v>
       </c>
       <c r="C167" s="3">
-        <f t="shared" si="3"/>
-        <v>0.63358778625954204</v>
+        <f t="shared" si="2"/>
+        <v>0.62213740458015265</v>
       </c>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.2">
@@ -1978,8 +1978,8 @@
         <v>163</v>
       </c>
       <c r="C168" s="3">
-        <f t="shared" si="3"/>
-        <v>0.63212927756653992</v>
+        <f t="shared" si="2"/>
+        <v>0.62072243346007605</v>
       </c>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.2">
@@ -1987,8 +1987,8 @@
         <v>164</v>
       </c>
       <c r="C169" s="3">
-        <f t="shared" si="3"/>
-        <v>0.63068181818181812</v>
+        <f t="shared" si="2"/>
+        <v>0.61931818181818188</v>
       </c>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.2">
@@ -1996,8 +1996,8 @@
         <v>165</v>
       </c>
       <c r="C170" s="3">
-        <f t="shared" si="3"/>
-        <v>0.62924528301886795</v>
+        <f t="shared" si="2"/>
+        <v>0.61792452830188682</v>
       </c>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.2">
@@ -2005,8 +2005,8 @@
         <v>166</v>
       </c>
       <c r="C171" s="3">
-        <f t="shared" si="3"/>
-        <v>0.6278195488721805</v>
+        <f t="shared" si="2"/>
+        <v>0.61654135338345872</v>
       </c>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.2">
@@ -2014,8 +2014,8 @@
         <v>167</v>
       </c>
       <c r="C172" s="3">
-        <f t="shared" si="3"/>
-        <v>0.62640449438202239</v>
+        <f t="shared" si="2"/>
+        <v>0.6151685393258427</v>
       </c>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.2">
@@ -2023,8 +2023,8 @@
         <v>168</v>
       </c>
       <c r="C173" s="3">
-        <f t="shared" si="3"/>
-        <v>0.625</v>
+        <f t="shared" si="2"/>
+        <v>0.61380597014925375</v>
       </c>
     </row>
     <row r="174" spans="2:3" x14ac:dyDescent="0.2">
@@ -2032,8 +2032,8 @@
         <v>169</v>
       </c>
       <c r="C174" s="3">
-        <f t="shared" si="3"/>
-        <v>0.62360594795539037</v>
+        <f t="shared" si="2"/>
+        <v>0.61245353159851301</v>
       </c>
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.2">
@@ -2041,8 +2041,8 @@
         <v>170</v>
       </c>
       <c r="C175" s="3">
-        <f t="shared" si="3"/>
-        <v>0.62222222222222223</v>
+        <f t="shared" si="2"/>
+        <v>0.61111111111111116</v>
       </c>
     </row>
     <row r="176" spans="2:3" x14ac:dyDescent="0.2">
@@ -2050,8 +2050,8 @@
         <v>171</v>
       </c>
       <c r="C176" s="3">
-        <f t="shared" si="3"/>
-        <v>0.62084870848708484</v>
+        <f t="shared" si="2"/>
+        <v>0.60977859778597787</v>
       </c>
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.2">
@@ -2059,8 +2059,8 @@
         <v>172</v>
       </c>
       <c r="C177" s="3">
-        <f t="shared" si="3"/>
-        <v>0.61948529411764708</v>
+        <f t="shared" si="2"/>
+        <v>0.60845588235294112</v>
       </c>
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.2">
@@ -2068,8 +2068,8 @@
         <v>173</v>
       </c>
       <c r="C178" s="3">
-        <f t="shared" si="3"/>
-        <v>0.61813186813186816</v>
+        <f t="shared" si="2"/>
+        <v>0.60714285714285721</v>
       </c>
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.2">
@@ -2077,8 +2077,8 @@
         <v>174</v>
       </c>
       <c r="C179" s="3">
-        <f t="shared" si="3"/>
-        <v>0.61678832116788329</v>
+        <f t="shared" si="2"/>
+        <v>0.6058394160583942</v>
       </c>
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.2">
@@ -2086,8 +2086,8 @@
         <v>175</v>
       </c>
       <c r="C180" s="3">
-        <f t="shared" si="3"/>
-        <v>0.61545454545454548</v>
+        <f t="shared" si="2"/>
+        <v>0.6045454545454545</v>
       </c>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.2">
@@ -2095,8 +2095,8 @@
         <v>176</v>
       </c>
       <c r="C181" s="3">
-        <f t="shared" si="3"/>
-        <v>0.61413043478260865</v>
+        <f t="shared" si="2"/>
+        <v>0.60326086956521741</v>
       </c>
     </row>
     <row r="182" spans="2:3" x14ac:dyDescent="0.2">
@@ -2104,8 +2104,8 @@
         <v>177</v>
       </c>
       <c r="C182" s="3">
-        <f t="shared" si="3"/>
-        <v>0.61281588447653434</v>
+        <f t="shared" si="2"/>
+        <v>0.60198555956678701</v>
       </c>
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.2">
@@ -2113,8 +2113,8 @@
         <v>178</v>
       </c>
       <c r="C183" s="3">
-        <f t="shared" si="3"/>
-        <v>0.61151079136690645</v>
+        <f t="shared" si="2"/>
+        <v>0.60071942446043169</v>
       </c>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.2">
@@ -2122,8 +2122,8 @@
         <v>179</v>
       </c>
       <c r="C184" s="3">
-        <f t="shared" si="3"/>
-        <v>0.61021505376344087</v>
+        <f t="shared" si="2"/>
+        <v>0.59946236559139787</v>
       </c>
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.2">
@@ -2131,8 +2131,8 @@
         <v>180</v>
       </c>
       <c r="C185" s="3">
-        <f t="shared" si="3"/>
-        <v>0.60892857142857149</v>
+        <f t="shared" si="2"/>
+        <v>0.5982142857142857</v>
       </c>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.2">
@@ -2140,8 +2140,8 @@
         <v>181</v>
       </c>
       <c r="C186" s="3">
-        <f t="shared" si="3"/>
-        <v>0.60765124555160144</v>
+        <f t="shared" si="2"/>
+        <v>0.59697508896797147</v>
       </c>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.2">
@@ -2149,8 +2149,8 @@
         <v>182</v>
       </c>
       <c r="C187" s="3">
-        <f t="shared" si="3"/>
-        <v>0.6063829787234043</v>
+        <f t="shared" si="2"/>
+        <v>0.5957446808510638</v>
       </c>
     </row>
     <row r="188" spans="2:3" x14ac:dyDescent="0.2">
@@ -2158,8 +2158,8 @@
         <v>183</v>
       </c>
       <c r="C188" s="3">
-        <f t="shared" si="3"/>
-        <v>0.60512367491166086</v>
+        <f t="shared" si="2"/>
+        <v>0.59452296819787986</v>
       </c>
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.2">
@@ -2167,8 +2167,8 @@
         <v>184</v>
       </c>
       <c r="C189" s="3">
-        <f t="shared" si="3"/>
-        <v>0.60387323943661975</v>
+        <f t="shared" si="2"/>
+        <v>0.59330985915492951</v>
       </c>
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.2">
@@ -2176,8 +2176,8 @@
         <v>185</v>
       </c>
       <c r="C190" s="3">
-        <f t="shared" si="3"/>
-        <v>0.60263157894736841</v>
+        <f t="shared" si="2"/>
+        <v>0.59210526315789469</v>
       </c>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.2">
@@ -2185,8 +2185,8 @@
         <v>186</v>
       </c>
       <c r="C191" s="3">
-        <f t="shared" si="3"/>
-        <v>0.60139860139860146</v>
+        <f t="shared" si="2"/>
+        <v>0.59090909090909083</v>
       </c>
     </row>
     <row r="192" spans="2:3" x14ac:dyDescent="0.2">
@@ -2194,8 +2194,8 @@
         <v>187</v>
       </c>
       <c r="C192" s="3">
-        <f t="shared" si="3"/>
-        <v>0.60017421602787457</v>
+        <f t="shared" si="2"/>
+        <v>0.58972125435540068</v>
       </c>
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.2">
@@ -2203,8 +2203,8 @@
         <v>188</v>
       </c>
       <c r="C193" s="3">
-        <f t="shared" si="3"/>
-        <v>0.59895833333333326</v>
+        <f t="shared" si="2"/>
+        <v>0.58854166666666674</v>
       </c>
     </row>
     <row r="194" spans="2:3" x14ac:dyDescent="0.2">
@@ -2212,8 +2212,8 @@
         <v>189</v>
       </c>
       <c r="C194" s="3">
-        <f t="shared" si="3"/>
-        <v>0.59775086505190311</v>
+        <f t="shared" si="2"/>
+        <v>0.58737024221453282</v>
       </c>
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.2">
@@ -2221,8 +2221,8 @@
         <v>190</v>
       </c>
       <c r="C195" s="3">
-        <f t="shared" si="3"/>
-        <v>0.59655172413793101</v>
+        <f t="shared" si="2"/>
+        <v>0.5862068965517242</v>
       </c>
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.2">
@@ -2230,8 +2230,8 @@
         <v>191</v>
       </c>
       <c r="C196" s="3">
-        <f t="shared" si="3"/>
-        <v>0.59536082474226804</v>
+        <f t="shared" si="2"/>
+        <v>0.5850515463917525</v>
       </c>
     </row>
     <row r="197" spans="2:3" x14ac:dyDescent="0.2">
@@ -2239,8 +2239,8 @@
         <v>192</v>
       </c>
       <c r="C197" s="3">
-        <f t="shared" si="3"/>
-        <v>0.59417808219178081</v>
+        <f t="shared" si="2"/>
+        <v>0.58390410958904115</v>
       </c>
     </row>
     <row r="198" spans="2:3" x14ac:dyDescent="0.2">
@@ -2248,8 +2248,8 @@
         <v>193</v>
       </c>
       <c r="C198" s="3">
-        <f t="shared" si="3"/>
-        <v>0.59300341296928327</v>
+        <f t="shared" ref="C198:C205" si="3">(1+(390/($F$6+B198)))/4</f>
+        <v>0.58276450511945388</v>
       </c>
     </row>
     <row r="199" spans="2:3" x14ac:dyDescent="0.2">
@@ -2258,7 +2258,7 @@
       </c>
       <c r="C199" s="3">
         <f t="shared" si="3"/>
-        <v>0.59183673469387754</v>
+        <v>0.58163265306122447</v>
       </c>
     </row>
     <row r="200" spans="2:3" x14ac:dyDescent="0.2">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="C200" s="3">
         <f t="shared" si="3"/>
-        <v>0.59067796610169498</v>
+        <v>0.58050847457627119</v>
       </c>
     </row>
     <row r="201" spans="2:3" x14ac:dyDescent="0.2">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="C201" s="3">
         <f t="shared" si="3"/>
-        <v>0.58952702702702697</v>
+        <v>0.57939189189189189</v>
       </c>
     </row>
     <row r="202" spans="2:3" x14ac:dyDescent="0.2">
@@ -2285,7 +2285,7 @@
       </c>
       <c r="C202" s="3">
         <f t="shared" si="3"/>
-        <v>0.58838383838383845</v>
+        <v>0.57828282828282829</v>
       </c>
     </row>
     <row r="203" spans="2:3" x14ac:dyDescent="0.2">
@@ -2294,7 +2294,7 @@
       </c>
       <c r="C203" s="3">
         <f t="shared" si="3"/>
-        <v>0.58724832214765099</v>
+        <v>0.57718120805369133</v>
       </c>
     </row>
     <row r="204" spans="2:3" x14ac:dyDescent="0.2">
@@ -2303,7 +2303,7 @@
       </c>
       <c r="C204" s="3">
         <f t="shared" si="3"/>
-        <v>0.58612040133779264</v>
+        <v>0.57608695652173914</v>
       </c>
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.2">
@@ -2312,7 +2312,7 @@
       </c>
       <c r="C205" s="3">
         <f t="shared" si="3"/>
-        <v>0.58499999999999996</v>
+        <v>0.57499999999999996</v>
       </c>
     </row>
   </sheetData>

--- a/KiCAD_project/CalculationGain.xlsx
+++ b/KiCAD_project/CalculationGain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stefan/work/CUSTOM_ZDC_FIFO/KiCAD_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9A6735-82BF-4247-9724-6D6DE4428917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44F98F7-BE21-C048-9F3F-25DC2CAA59E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="1560" windowWidth="28040" windowHeight="17120" xr2:uid="{3C194A3F-986B-144B-A3E5-2971A0502443}"/>
+    <workbookView xWindow="35260" yWindow="80" windowWidth="30240" windowHeight="17200" xr2:uid="{3C194A3F-986B-144B-A3E5-2971A0502443}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -448,7 +448,7 @@
   <dimension ref="B1:M205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2311,7 +2311,7 @@
         <v>200</v>
       </c>
       <c r="C205" s="3">
-        <f t="shared" si="3"/>
+        <f>(1+(390/($F$6+B205)))/4</f>
         <v>0.57499999999999996</v>
       </c>
     </row>
